--- a/data/trans_bre/P10_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,26</t>
+          <t>-1,87; 2,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,06</t>
+          <t>0,29; 5,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,07</t>
+          <t>-1,41; 3,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,96</t>
+          <t>0,5; 10,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 160,54</t>
+          <t>-54,4; 151,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 399,81</t>
+          <t>0,36; 429,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 228,94</t>
+          <t>-48,58; 262,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 1116,77</t>
+          <t>-15,71; 1327,5</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,67</t>
+          <t>2,04; 6,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,16</t>
+          <t>0,19; 5,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,72</t>
+          <t>-2,26; 2,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,95</t>
+          <t>1,03; 7,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,44; 273,11</t>
+          <t>41,84; 278,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 253,82</t>
+          <t>-3,67; 229,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 86,69</t>
+          <t>-39,18; 93,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 720,48</t>
+          <t>14,71; 629,22</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,14; 5,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,1</t>
+          <t>3,0; 9,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,88</t>
+          <t>-0,56; 4,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,74</t>
+          <t>-2,56; 2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 170,09</t>
+          <t>1,25; 181,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,55; 212,29</t>
+          <t>45,07; 215,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 132,91</t>
+          <t>-10,06; 138,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 65,61</t>
+          <t>-35,27; 64,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,29</t>
+          <t>1,56; 8,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,4</t>
+          <t>2,45; 10,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,72</t>
+          <t>0,23; 6,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,74</t>
+          <t>0,26; 6,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 163,5</t>
+          <t>18,45; 164,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 193,6</t>
+          <t>25,38; 191,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 121,36</t>
+          <t>1,96; 116,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 139,22</t>
+          <t>1,4; 133,94</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,62</t>
+          <t>-1,43; 6,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 16,1</t>
+          <t>5,75; 15,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,26</t>
+          <t>6,66; 15,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,86</t>
+          <t>2,71; 8,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 104,13</t>
+          <t>-15,05; 109,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,16; 212,27</t>
+          <t>49,55; 212,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,29; 294,51</t>
+          <t>71,1; 296,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 149,3</t>
+          <t>26,43; 138,75</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,51</t>
+          <t>-1,6; 6,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 16,5</t>
+          <t>7,43; 16,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,32</t>
+          <t>10,02; 18,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,09</t>
+          <t>2,89; 12,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 58,26</t>
+          <t>-11,23; 53,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,05; 119,54</t>
+          <t>37,98; 123,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,78; 213,45</t>
+          <t>82,28; 218,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,09; 157,54</t>
+          <t>33,37; 153,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>2,13; 4,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,98</t>
+          <t>5,9; 9,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,54</t>
+          <t>4,61; 7,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,82</t>
+          <t>3,86; 6,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>31,47; 85,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,56; 141,47</t>
+          <t>74,76; 139,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,69; 139,29</t>
+          <t>69,08; 136,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,22; 122,55</t>
+          <t>55,26; 121,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,19</t>
+          <t>-2,27; 2,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,03</t>
+          <t>0,39; 5,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,21</t>
+          <t>-1,48; 3,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,4; 151,9</t>
+          <t>-58,95; 137,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 429,64</t>
+          <t>0,77; 402,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 262,38</t>
+          <t>-44,28; 220,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,78</t>
+          <t>1,59; 6,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,1</t>
+          <t>0,31; 5,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,8</t>
+          <t>-2,32; 2,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,84; 278,62</t>
+          <t>32,03; 266,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 229,34</t>
+          <t>1,35; 268,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 93,59</t>
+          <t>-43,15; 89,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,23</t>
+          <t>0,04; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,15</t>
+          <t>2,9; 9,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,73</t>
+          <t>-0,83; 4,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 181,04</t>
+          <t>-1,65; 178,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,07; 215,38</t>
+          <t>39,68; 228,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 138,18</t>
+          <t>-14,38; 130,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,41</t>
+          <t>1,82; 9,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,35</t>
+          <t>3,07; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,55</t>
+          <t>0,41; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 164,01</t>
+          <t>19,53; 186,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,38; 191,76</t>
+          <t>35,13; 196,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 116,96</t>
+          <t>3,8; 125,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,75</t>
+          <t>-1,58; 6,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,98</t>
+          <t>6,3; 15,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 15,45</t>
+          <t>6,67; 15,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 109,78</t>
+          <t>-16,13; 104,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,55; 212,43</t>
+          <t>52,37; 195,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,1; 296,22</t>
+          <t>71,12; 291,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,37</t>
+          <t>-1,99; 6,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 16,85</t>
+          <t>7,3; 16,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,35</t>
+          <t>9,54; 18,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 53,46</t>
+          <t>-12,52; 54,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,98; 123,24</t>
+          <t>37,23; 117,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>82,28; 218,3</t>
+          <t>76,98; 216,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,68</t>
+          <t>2,09; 4,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,05</t>
+          <t>5,97; 9,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,44</t>
+          <t>4,64; 7,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,47; 85,5</t>
+          <t>31,65; 83,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>74,76; 139,78</t>
+          <t>76,52; 141,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,08; 136,57</t>
+          <t>68,74; 137,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
